--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6345,6 +6345,98 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45205.88541666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>02/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>02/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>02/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>06/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-boavista/xtroyewr/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.12</v>
+        <v>2.45</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.15</v>
+        <v>3.35</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19/08/2023 20:57</t>
+          <t>19/08/2023 21:28</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>10.69</v>
+        <v>3.31</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>8.859999999999999</v>
+        <v>3.24</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>19/08/2023 21:25</t>
+          <t>19/08/2023 21:22</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>22.27</v>
+        <v>3.16</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>19.04</v>
+        <v>2.38</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>19/08/2023 21:25</t>
+          <t>19/08/2023 21:28</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-estrela-da-amadora/zFdna79Q/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-boavista/C0wwkNoJ/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.45</v>
+        <v>1.12</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.35</v>
+        <v>1.15</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 21:28</t>
+          <t>19/08/2023 20:57</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.31</v>
+        <v>10.69</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.24</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 21:22</t>
+          <t>19/08/2023 21:25</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.16</v>
+        <v>22.27</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.38</v>
+        <v>19.04</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 21:28</t>
+          <t>19/08/2023 21:25</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-boavista/C0wwkNoJ/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-estrela-da-amadora/zFdna79Q/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -3444,11 +3444,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>27/08/2023 15:42</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3.06</v>
+        <v>2.65</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3456,40 +3456,40 @@
         </is>
       </c>
       <c r="N33" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>27/08/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
         <v>3.28</v>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>28/08/2023 04:12</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>3.53</v>
-      </c>
       <c r="Q33" t="inlineStr">
         <is>
+          <t>03/09/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>27/08/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
           <t>03/09/2023 16:22</t>
         </is>
       </c>
-      <c r="R33" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>28/08/2023 04:12</t>
-        </is>
-      </c>
-      <c r="T33" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>03/09/2023 16:22</t>
-        </is>
-      </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-moreirense/MmxZKNVn/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-boavista/l0TkHuVB/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -3536,11 +3536,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>27/08/2023 15:42</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.65</v>
+        <v>3.06</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,31 +3548,31 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>27/08/2023 15:42</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.28</v>
+        <v>3.53</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>03/09/2023 16:28</t>
+          <t>03/09/2023 16:22</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.38</v>
+        <v>3.39</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>27/08/2023 15:42</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.89</v>
+        <v>2.39</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-boavista/l0TkHuVB/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-moreirense/MmxZKNVn/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.93</v>
+        <v>2.05</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 16:27</t>
+          <t>17/09/2023 16:29</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.23</v>
+        <v>3.53</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.66</v>
+        <v>3.54</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.66</v>
+        <v>3.87</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-casa-pia/YkfRciUj/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-estoril/zyjRGWzT/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,48 +4368,48 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.05</v>
+        <v>2.93</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>17/09/2023 16:27</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>04/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
           <t>17/09/2023 16:29</t>
         </is>
       </c>
-      <c r="N43" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O43" t="inlineStr">
+      <c r="R43" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S43" t="inlineStr">
         <is>
           <t>04/09/2023 18:12</t>
         </is>
       </c>
-      <c r="P43" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q43" t="inlineStr">
+      <c r="T43" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U43" t="inlineStr">
         <is>
           <t>17/09/2023 16:29</t>
         </is>
       </c>
-      <c r="R43" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>04/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T43" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:29</t>
-        </is>
-      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-estoril/zyjRGWzT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-casa-pia/YkfRciUj/</t>
         </is>
       </c>
     </row>
@@ -6434,6 +6434,374 @@
       <c r="V65" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-boavista/xtroyewr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45206.6875</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Chaves</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:25</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-gil-vicente/K4BKKZh1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45206.6875</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>SC Farense</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>02/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:02</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>02/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>02/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:03</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sc-farense-vizela/OY1Asc0E/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45206.79166666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/braga-rio-ave/2TGFLFwe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45206.89583333334</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>01/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>07/10/2023 21:28</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>01/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>07/10/2023 21:28</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>01/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>07/10/2023 21:28</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-benfica/6ciFtHFK/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.45</v>
+        <v>1.12</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.35</v>
+        <v>1.15</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19/08/2023 21:28</t>
+          <t>19/08/2023 20:57</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.31</v>
+        <v>10.69</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.24</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>19/08/2023 21:22</t>
+          <t>19/08/2023 21:25</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.16</v>
+        <v>22.27</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.38</v>
+        <v>19.04</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>19/08/2023 21:28</t>
+          <t>19/08/2023 21:25</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-boavista/C0wwkNoJ/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-estrela-da-amadora/zFdna79Q/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.12</v>
+        <v>2.45</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.15</v>
+        <v>3.35</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 20:57</t>
+          <t>19/08/2023 21:28</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>10.69</v>
+        <v>3.31</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>8.859999999999999</v>
+        <v>3.24</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 21:25</t>
+          <t>19/08/2023 21:22</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>22.27</v>
+        <v>3.16</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>19.04</v>
+        <v>2.38</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 21:25</t>
+          <t>19/08/2023 21:28</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-estrela-da-amadora/zFdna79Q/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-boavista/C0wwkNoJ/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.57</v>
+        <v>1.64</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,48 +3172,48 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>02/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>28/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
           <t>02/09/2023 18:57</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O30" t="inlineStr">
+      <c r="R30" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="S30" t="inlineStr">
         <is>
           <t>28/08/2023 03:42</t>
         </is>
       </c>
-      <c r="P30" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>02/09/2023 18:55</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>28/08/2023 03:42</t>
-        </is>
-      </c>
       <c r="T30" t="n">
-        <v>2.92</v>
+        <v>3.04</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>02/09/2023 18:57</t>
+          <t>02/09/2023 18:58</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-estrela-da-amadora/faeNbXEp/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-sc-farense/0vywKsog/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.64</v>
+        <v>2.57</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:58</t>
+          <t>02/09/2023 18:57</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,32 +3280,32 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.24</v>
+        <v>3.31</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
+          <t>02/09/2023 18:55</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>28/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
           <t>02/09/2023 18:57</t>
         </is>
       </c>
-      <c r="R31" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>28/08/2023 03:42</t>
-        </is>
-      </c>
-      <c r="T31" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>02/09/2023 18:58</t>
-        </is>
-      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-sc-farense/0vywKsog/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-estrela-da-amadora/faeNbXEp/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -3444,11 +3444,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>27/08/2023 15:42</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.65</v>
+        <v>3.06</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3456,31 +3456,31 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>27/08/2023 15:42</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.28</v>
+        <v>3.53</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>03/09/2023 16:28</t>
+          <t>03/09/2023 16:22</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.38</v>
+        <v>3.39</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>27/08/2023 15:42</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.89</v>
+        <v>2.39</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-boavista/l0TkHuVB/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-moreirense/MmxZKNVn/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -3536,11 +3536,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>27/08/2023 15:42</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3.06</v>
+        <v>2.65</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,40 +3548,40 @@
         </is>
       </c>
       <c r="N34" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>27/08/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
         <v>3.28</v>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>28/08/2023 04:12</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>3.53</v>
-      </c>
       <c r="Q34" t="inlineStr">
         <is>
+          <t>03/09/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>27/08/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
           <t>03/09/2023 16:22</t>
         </is>
       </c>
-      <c r="R34" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>28/08/2023 04:12</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>03/09/2023 16:22</t>
-        </is>
-      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-moreirense/MmxZKNVn/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-boavista/l0TkHuVB/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.05</v>
+        <v>2.93</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>17/09/2023 16:27</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>04/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
           <t>17/09/2023 16:29</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="R42" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>04/09/2023 18:12</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q42" t="inlineStr">
+      <c r="T42" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U42" t="inlineStr">
         <is>
           <t>17/09/2023 16:29</t>
         </is>
       </c>
-      <c r="R42" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>04/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:29</t>
-        </is>
-      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-estoril/zyjRGWzT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-casa-pia/YkfRciUj/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.93</v>
+        <v>2.05</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 16:27</t>
+          <t>17/09/2023 16:29</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.23</v>
+        <v>3.53</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.66</v>
+        <v>3.54</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.66</v>
+        <v>3.87</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-casa-pia/YkfRciUj/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-estoril/zyjRGWzT/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>19/09/2023 06:12</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.13</v>
+        <v>2.62</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>23/09/2023 16:26</t>
+          <t>23/09/2023 16:25</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.55</v>
+        <v>3.41</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>19/09/2023 06:12</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.55</v>
+        <v>3.49</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 16:27</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.44</v>
+        <v>3.31</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>19/09/2023 06:12</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.59</v>
+        <v>2.79</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>23/09/2023 16:26</t>
+          <t>23/09/2023 16:27</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-sc-farense/fZBWP9Dq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-vizela/MROqZDjc/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 06:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.62</v>
+        <v>2.13</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>23/09/2023 16:25</t>
+          <t>23/09/2023 16:26</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.41</v>
+        <v>3.55</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 06:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.49</v>
+        <v>3.55</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>23/09/2023 16:27</t>
+          <t>23/09/2023 15:52</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.31</v>
+        <v>3.44</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 06:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.79</v>
+        <v>3.59</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>23/09/2023 16:27</t>
+          <t>23/09/2023 16:26</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-vizela/MROqZDjc/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-sc-farense/fZBWP9Dq/</t>
         </is>
       </c>
     </row>
@@ -6802,6 +6802,374 @@
       <c r="V69" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-benfica/6ciFtHFK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45207.6875</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-estrela-da-amadora/Cbb6rwo8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45207.6875</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Vitoria Guimaraes</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>02/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:27</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>02/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:27</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>02/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>08/10/2023 16:27</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-vitoria-guimaraes/beAOJg87/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45207.79166666666</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>FC Porto</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>02/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>02/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>02/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/fc-porto-portimonense/OxIBMeOl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45207.89583333334</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>08/10/2023 21:16</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>08/10/2023 21:26</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>08/10/2023 21:26</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sporting-lisbon-arouca/pljJuyVQ/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.12</v>
+        <v>2.45</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.15</v>
+        <v>3.35</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19/08/2023 20:57</t>
+          <t>19/08/2023 21:28</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>10.69</v>
+        <v>3.31</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>8.859999999999999</v>
+        <v>3.24</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>19/08/2023 21:25</t>
+          <t>19/08/2023 21:22</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>22.27</v>
+        <v>3.16</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>19.04</v>
+        <v>2.38</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>19/08/2023 21:25</t>
+          <t>19/08/2023 21:28</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-estrela-da-amadora/zFdna79Q/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-boavista/C0wwkNoJ/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.45</v>
+        <v>1.12</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.35</v>
+        <v>1.15</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 21:28</t>
+          <t>19/08/2023 20:57</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.31</v>
+        <v>10.69</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.24</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 21:22</t>
+          <t>19/08/2023 21:25</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.16</v>
+        <v>22.27</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.38</v>
+        <v>19.04</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 21:28</t>
+          <t>19/08/2023 21:25</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-boavista/C0wwkNoJ/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-estrela-da-amadora/zFdna79Q/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.93</v>
+        <v>2.05</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 16:27</t>
+          <t>17/09/2023 16:29</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.23</v>
+        <v>3.53</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.66</v>
+        <v>3.54</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.66</v>
+        <v>3.87</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-casa-pia/YkfRciUj/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-estoril/zyjRGWzT/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,48 +4368,48 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.05</v>
+        <v>2.93</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>17/09/2023 16:27</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>04/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
           <t>17/09/2023 16:29</t>
         </is>
       </c>
-      <c r="N43" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O43" t="inlineStr">
+      <c r="R43" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S43" t="inlineStr">
         <is>
           <t>04/09/2023 18:12</t>
         </is>
       </c>
-      <c r="P43" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q43" t="inlineStr">
+      <c r="T43" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U43" t="inlineStr">
         <is>
           <t>17/09/2023 16:29</t>
         </is>
       </c>
-      <c r="R43" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>04/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T43" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:29</t>
-        </is>
-      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-estoril/zyjRGWzT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-casa-pia/YkfRciUj/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>1.89</v>
+        <v>2.59</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.16</v>
+        <v>2.94</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>08/10/2023 16:29</t>
+          <t>08/10/2023 16:27</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.53</v>
+        <v>3.26</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.47</v>
+        <v>3.07</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>08/10/2023 16:29</t>
+          <t>08/10/2023 16:27</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>4.36</v>
+        <v>2.89</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.61</v>
+        <v>2.77</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>08/10/2023 16:28</t>
+          <t>08/10/2023 16:27</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-estrela-da-amadora/Cbb6rwo8/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-vitoria-guimaraes/beAOJg87/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
         <v>1</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Vitoria Guimaraes</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>3</v>
-      </c>
       <c r="J71" t="n">
-        <v>2.59</v>
+        <v>1.89</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.94</v>
+        <v>2.16</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>08/10/2023 16:27</t>
+          <t>08/10/2023 16:29</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.07</v>
+        <v>3.47</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>08/10/2023 16:27</t>
+          <t>08/10/2023 16:29</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.89</v>
+        <v>4.36</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.77</v>
+        <v>3.61</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>08/10/2023 16:27</t>
+          <t>08/10/2023 16:28</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-vitoria-guimaraes/beAOJg87/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-estrela-da-amadora/Cbb6rwo8/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,834 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal/sporting-lisbon-arouca/pljJuyVQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45226.88541666666</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>27/10/2023 21:06</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>27/10/2023 21:06</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>27/10/2023 21:06</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-moreirense/beWgZY7f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45227.6875</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:22</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:22</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:23</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-estoril/21GDx8En/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45227.79166666666</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45227.79166666666</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Vitoria Guimaraes</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>5</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Chaves</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45227.89583333334</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>28/10/2023 21:23</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>28/10/2023 21:23</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>28/10/2023 21:23</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-braga/WEgteGUD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45228.6875</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>SC Farense</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>4</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:21</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:21</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:21</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/rio-ave-sc-farense/G4KHySTh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45228.79166666666</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:50</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estrela-da-amadora-famalicao/6LZ1XCx7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45228.89583333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>FC Porto</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:29</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:29</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:22</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vizela-fc-porto/pCY5WWiD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45229.88541666666</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:14</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:14</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:06</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/boavista-sporting-lisbon/CbzbYhN0/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8001,6 +8001,98 @@
         </is>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45233.88541666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>FC Porto</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>03/11/2023 21:00</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>03/11/2023 21:00</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>03/11/2023 21:00</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/fc-porto-estoril/feuijRrn/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.05</v>
+        <v>2.93</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>17/09/2023 16:27</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>04/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
           <t>17/09/2023 16:29</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="R42" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>04/09/2023 18:12</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q42" t="inlineStr">
+      <c r="T42" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U42" t="inlineStr">
         <is>
           <t>17/09/2023 16:29</t>
         </is>
       </c>
-      <c r="R42" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>04/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:29</t>
-        </is>
-      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-estoril/zyjRGWzT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-casa-pia/YkfRciUj/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.93</v>
+        <v>2.05</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 16:27</t>
+          <t>17/09/2023 16:29</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.23</v>
+        <v>3.53</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.66</v>
+        <v>3.54</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.66</v>
+        <v>3.87</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-casa-pia/YkfRciUj/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-estoril/zyjRGWzT/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.62</v>
+        <v>2.29</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.74</v>
+        <v>2.32</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>07/10/2023 16:29</t>
+          <t>07/10/2023 16:02</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.65</v>
+        <v>3.47</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>07/10/2023 16:25</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.73</v>
+        <v>3.31</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.58</v>
+        <v>3.24</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>07/10/2023 16:29</t>
+          <t>07/10/2023 16:03</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-gil-vicente/K4BKKZh1/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sc-farense-vizela/OY1Asc0E/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>2.29</v>
+        <v>2.62</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.32</v>
+        <v>2.74</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>07/10/2023 16:02</t>
+          <t>07/10/2023 16:29</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.47</v>
+        <v>3.65</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 16:25</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.31</v>
+        <v>2.73</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.24</v>
+        <v>2.58</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>07/10/2023 16:03</t>
+          <t>07/10/2023 16:29</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sc-farense-vizela/OY1Asc0E/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-gil-vicente/K4BKKZh1/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Vitoria Guimaraes</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
       <c r="J70" t="n">
-        <v>2.59</v>
+        <v>1.89</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.94</v>
+        <v>2.16</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>08/10/2023 16:27</t>
+          <t>08/10/2023 16:29</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.07</v>
+        <v>3.47</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>08/10/2023 16:27</t>
+          <t>08/10/2023 16:29</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.89</v>
+        <v>4.36</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.77</v>
+        <v>3.61</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>08/10/2023 16:27</t>
+          <t>08/10/2023 16:28</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-vitoria-guimaraes/beAOJg87/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-estrela-da-amadora/Cbb6rwo8/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>1.89</v>
+        <v>2.59</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.16</v>
+        <v>2.94</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>08/10/2023 16:29</t>
+          <t>08/10/2023 16:27</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.53</v>
+        <v>3.26</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.47</v>
+        <v>3.07</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>08/10/2023 16:29</t>
+          <t>08/10/2023 16:27</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>4.36</v>
+        <v>2.89</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.61</v>
+        <v>2.77</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>08/10/2023 16:28</t>
+          <t>08/10/2023 16:27</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-estrela-da-amadora/Cbb6rwo8/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-vitoria-guimaraes/beAOJg87/</t>
         </is>
       </c>
     </row>
@@ -8090,6 +8090,282 @@
       <c r="V83" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal/fc-porto-estoril/feuijRrn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45234.6875</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Chaves</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:25</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:25</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>28/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:25</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-benfica/ppCYXqTH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45234.79166666666</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:53</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:53</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-gil-vicente/xK8QZ5b5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45234.89583333334</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>6</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>30/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>04/11/2023 21:26</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>30/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>04/11/2023 21:26</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>30/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>04/11/2023 21:26</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/braga-portimonense/bT9Mznqa/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 18:55</t>
+          <t>28/10/2023 18:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>7.32</v>
+        <v>4.26</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>6.95</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>13.22</v>
+        <v>5.63</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>14.17</v>
+        <v>5.29</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.62</v>
+        <v>1.22</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,48 +7496,48 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.69</v>
+        <v>1.22</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
+          <t>28/10/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="N77" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="O77" t="inlineStr">
+      <c r="R77" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="S77" t="inlineStr">
         <is>
           <t>11/10/2023 14:42</t>
         </is>
       </c>
-      <c r="P77" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q77" t="inlineStr">
+      <c r="T77" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="U77" t="inlineStr">
         <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="R77" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>11/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T77" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:58</t>
-        </is>
-      </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
         </is>
       </c>
     </row>
@@ -8366,6 +8366,282 @@
       <c r="V86" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal/braga-portimonense/bT9Mznqa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45235.6875</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Vitoria Guimaraes</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>30/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>30/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>30/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:21</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-vitoria-guimaraes/vq5sWNcU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45235.6875</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:22</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:21</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:22</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-vizela/6gDUYPDB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45235.79166666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/rio-ave-boavista/G4tmi7Tu/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>2.29</v>
+        <v>2.62</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.32</v>
+        <v>2.74</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>07/10/2023 16:02</t>
+          <t>07/10/2023 16:29</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.47</v>
+        <v>3.65</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 16:25</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.31</v>
+        <v>2.73</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.24</v>
+        <v>2.58</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>07/10/2023 16:03</t>
+          <t>07/10/2023 16:29</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sc-farense-vizela/OY1Asc0E/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-gil-vicente/K4BKKZh1/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.62</v>
+        <v>2.29</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.74</v>
+        <v>2.32</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>07/10/2023 16:29</t>
+          <t>07/10/2023 16:02</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.65</v>
+        <v>3.47</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>07/10/2023 16:25</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.73</v>
+        <v>3.31</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.58</v>
+        <v>3.24</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>07/10/2023 16:29</t>
+          <t>07/10/2023 16:03</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-gil-vicente/K4BKKZh1/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sc-farense-vizela/OY1Asc0E/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.62</v>
+        <v>1.22</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,48 +7404,48 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.69</v>
+        <v>1.22</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>28/10/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="O76" t="inlineStr">
+      <c r="R76" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="S76" t="inlineStr">
         <is>
           <t>11/10/2023 14:42</t>
         </is>
       </c>
-      <c r="P76" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q76" t="inlineStr">
+      <c r="T76" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="U76" t="inlineStr">
         <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="R76" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>11/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T76" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:58</t>
-        </is>
-      </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 18:55</t>
+          <t>28/10/2023 18:58</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>7.32</v>
+        <v>4.26</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>6.95</v>
+        <v>4</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>13.22</v>
+        <v>5.63</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>14.17</v>
+        <v>5.29</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>1</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Vitoria Guimaraes</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
       <c r="J87" t="n">
-        <v>2.66</v>
+        <v>2.17</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>30/10/2023 14:42</t>
+          <t>29/10/2023 21:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.93</v>
+        <v>2.25</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>05/11/2023 16:28</t>
+          <t>05/11/2023 16:22</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.23</v>
+        <v>3.42</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>30/10/2023 14:42</t>
+          <t>29/10/2023 21:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.35</v>
+        <v>3.28</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>05/11/2023 16:02</t>
+          <t>05/11/2023 16:21</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.9</v>
+        <v>3.58</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>30/10/2023 14:42</t>
+          <t>29/10/2023 21:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.58</v>
+        <v>3.59</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>05/11/2023 16:21</t>
+          <t>05/11/2023 16:22</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-vitoria-guimaraes/vq5sWNcU/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-vizela/6gDUYPDB/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Vitoria Guimaraes</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Vizela</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
       <c r="J88" t="n">
-        <v>2.17</v>
+        <v>2.66</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>29/10/2023 21:42</t>
+          <t>30/10/2023 14:42</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.25</v>
+        <v>2.93</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>05/11/2023 16:22</t>
+          <t>05/11/2023 16:28</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.42</v>
+        <v>3.23</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>29/10/2023 21:42</t>
+          <t>30/10/2023 14:42</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
+          <t>05/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>30/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
           <t>05/11/2023 16:21</t>
         </is>
       </c>
-      <c r="R88" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>29/10/2023 21:42</t>
-        </is>
-      </c>
-      <c r="T88" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>05/11/2023 16:22</t>
-        </is>
-      </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-vizela/6gDUYPDB/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-vitoria-guimaraes/vq5sWNcU/</t>
         </is>
       </c>
     </row>
@@ -8642,6 +8642,98 @@
       <c r="V89" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal/rio-ave-boavista/G4tmi7Tu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45235.89583333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>3</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:23</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:23</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:23</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sporting-lisbon-estrela-da-amadora/CWZekobh/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 18:55</t>
+          <t>28/10/2023 18:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>7.32</v>
+        <v>4.26</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>6.95</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>13.22</v>
+        <v>5.63</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>14.17</v>
+        <v>5.29</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.62</v>
+        <v>1.22</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,48 +7496,48 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.69</v>
+        <v>1.22</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
+          <t>28/10/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="N77" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="O77" t="inlineStr">
+      <c r="R77" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="S77" t="inlineStr">
         <is>
           <t>11/10/2023 14:42</t>
         </is>
       </c>
-      <c r="P77" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q77" t="inlineStr">
+      <c r="T77" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="U77" t="inlineStr">
         <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="R77" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>11/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T77" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:58</t>
-        </is>
-      </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
         </is>
       </c>
     </row>
@@ -8734,6 +8734,98 @@
       <c r="V90" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal/sporting-lisbon-estrela-da-amadora/CWZekobh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45236.88541666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>SC Farense</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>30/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:07</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>30/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>06/11/2023 20:48</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>30/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:07</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sc-farense-arouca/S81wX3rO/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>1.89</v>
+        <v>2.59</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.16</v>
+        <v>2.94</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>08/10/2023 16:29</t>
+          <t>08/10/2023 16:27</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.53</v>
+        <v>3.26</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.47</v>
+        <v>3.07</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>08/10/2023 16:29</t>
+          <t>08/10/2023 16:27</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>4.36</v>
+        <v>2.89</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.61</v>
+        <v>2.77</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>08/10/2023 16:28</t>
+          <t>08/10/2023 16:27</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-estrela-da-amadora/Cbb6rwo8/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-vitoria-guimaraes/beAOJg87/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
         <v>1</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Vitoria Guimaraes</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>3</v>
-      </c>
       <c r="J71" t="n">
-        <v>2.59</v>
+        <v>1.89</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.94</v>
+        <v>2.16</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>08/10/2023 16:27</t>
+          <t>08/10/2023 16:29</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.07</v>
+        <v>3.47</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>08/10/2023 16:27</t>
+          <t>08/10/2023 16:29</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.89</v>
+        <v>4.36</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.77</v>
+        <v>3.61</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>08/10/2023 16:27</t>
+          <t>08/10/2023 16:28</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-vitoria-guimaraes/beAOJg87/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-estrela-da-amadora/Cbb6rwo8/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.62</v>
+        <v>1.22</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,48 +7404,48 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.69</v>
+        <v>1.22</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>28/10/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="O76" t="inlineStr">
+      <c r="R76" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="S76" t="inlineStr">
         <is>
           <t>11/10/2023 14:42</t>
         </is>
       </c>
-      <c r="P76" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q76" t="inlineStr">
+      <c r="T76" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="U76" t="inlineStr">
         <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="R76" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>11/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T76" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:58</t>
-        </is>
-      </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 18:55</t>
+          <t>28/10/2023 18:58</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>7.32</v>
+        <v>4.26</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>6.95</v>
+        <v>4</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>13.22</v>
+        <v>5.63</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>14.17</v>
+        <v>5.29</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
         </is>
       </c>
     </row>
@@ -8826,6 +8826,98 @@
       <c r="V91" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal/sc-farense-arouca/S81wX3rO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45240.88541666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>4</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>10/11/2023 21:07</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>10/11/2023 21:07</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>10/11/2023 21:07</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-casa-pia/ppfZ24Si/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.45</v>
+        <v>1.12</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.35</v>
+        <v>1.15</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19/08/2023 21:28</t>
+          <t>19/08/2023 20:57</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.31</v>
+        <v>10.69</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.24</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>19/08/2023 21:22</t>
+          <t>19/08/2023 21:25</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.16</v>
+        <v>22.27</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.38</v>
+        <v>19.04</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>19/08/2023 21:28</t>
+          <t>19/08/2023 21:25</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-boavista/C0wwkNoJ/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-estrela-da-amadora/zFdna79Q/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.12</v>
+        <v>2.45</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.15</v>
+        <v>3.35</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 20:57</t>
+          <t>19/08/2023 21:28</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>10.69</v>
+        <v>3.31</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>8.859999999999999</v>
+        <v>3.24</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 21:25</t>
+          <t>19/08/2023 21:22</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>22.27</v>
+        <v>3.16</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>19.04</v>
+        <v>2.38</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 21:25</t>
+          <t>19/08/2023 21:28</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-estrela-da-amadora/zFdna79Q/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-boavista/C0wwkNoJ/</t>
         </is>
       </c>
     </row>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.62</v>
+        <v>2.29</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.74</v>
+        <v>2.32</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>07/10/2023 16:29</t>
+          <t>07/10/2023 16:02</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.65</v>
+        <v>3.47</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>07/10/2023 16:25</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.73</v>
+        <v>3.31</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.58</v>
+        <v>3.24</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>07/10/2023 16:29</t>
+          <t>07/10/2023 16:03</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-gil-vicente/K4BKKZh1/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sc-farense-vizela/OY1Asc0E/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>2.29</v>
+        <v>2.62</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.32</v>
+        <v>2.74</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>07/10/2023 16:02</t>
+          <t>07/10/2023 16:29</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.47</v>
+        <v>3.65</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 16:25</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.31</v>
+        <v>2.73</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.24</v>
+        <v>2.58</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>07/10/2023 16:03</t>
+          <t>07/10/2023 16:29</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sc-farense-vizela/OY1Asc0E/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-gil-vicente/K4BKKZh1/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Vitoria Guimaraes</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
       <c r="J70" t="n">
-        <v>2.59</v>
+        <v>1.89</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.94</v>
+        <v>2.16</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>08/10/2023 16:27</t>
+          <t>08/10/2023 16:29</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.07</v>
+        <v>3.47</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>08/10/2023 16:27</t>
+          <t>08/10/2023 16:29</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.89</v>
+        <v>4.36</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.77</v>
+        <v>3.61</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>08/10/2023 16:27</t>
+          <t>08/10/2023 16:28</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-vitoria-guimaraes/beAOJg87/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-estrela-da-amadora/Cbb6rwo8/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>1.89</v>
+        <v>2.59</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.16</v>
+        <v>2.94</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>08/10/2023 16:29</t>
+          <t>08/10/2023 16:27</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.53</v>
+        <v>3.26</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.47</v>
+        <v>3.07</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>08/10/2023 16:29</t>
+          <t>08/10/2023 16:27</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>4.36</v>
+        <v>2.89</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.61</v>
+        <v>2.77</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>08/10/2023 16:28</t>
+          <t>08/10/2023 16:27</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-estrela-da-amadora/Cbb6rwo8/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-vitoria-guimaraes/beAOJg87/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 18:55</t>
+          <t>28/10/2023 18:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>7.32</v>
+        <v>4.26</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>6.95</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>13.22</v>
+        <v>5.63</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>14.17</v>
+        <v>5.29</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.62</v>
+        <v>1.22</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,48 +7496,48 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.69</v>
+        <v>1.22</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
+          <t>28/10/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="N77" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="O77" t="inlineStr">
+      <c r="R77" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="S77" t="inlineStr">
         <is>
           <t>11/10/2023 14:42</t>
         </is>
       </c>
-      <c r="P77" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q77" t="inlineStr">
+      <c r="T77" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="U77" t="inlineStr">
         <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="R77" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>11/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T77" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:58</t>
-        </is>
-      </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
         </is>
       </c>
     </row>
@@ -8918,6 +8918,282 @@
       <c r="V92" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-casa-pia/ppfZ24Si/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45241.6875</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Chaves</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:44</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:27</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:44</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:44</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-chaves/UyCnu1zo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45241.79166666666</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>06/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>06/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:54</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>06/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estrela-da-amadora-moreirense/SSPKqsST/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45241.79166666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:31</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vizela-famalicao/WtjV3pDo/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V95"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 06:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.62</v>
+        <v>2.13</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>23/09/2023 16:25</t>
+          <t>23/09/2023 16:26</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.41</v>
+        <v>3.55</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 06:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.49</v>
+        <v>3.55</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>23/09/2023 16:27</t>
+          <t>23/09/2023 15:52</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.31</v>
+        <v>3.44</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 06:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.79</v>
+        <v>3.59</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>23/09/2023 16:27</t>
+          <t>23/09/2023 16:26</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-vizela/MROqZDjc/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-sc-farense/fZBWP9Dq/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>19/09/2023 06:12</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.13</v>
+        <v>2.62</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>23/09/2023 16:26</t>
+          <t>23/09/2023 16:25</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.55</v>
+        <v>3.41</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>19/09/2023 06:12</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.55</v>
+        <v>3.49</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 16:27</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.44</v>
+        <v>3.31</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>19/09/2023 06:12</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.59</v>
+        <v>2.79</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>23/09/2023 16:26</t>
+          <t>23/09/2023 16:27</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-sc-farense/fZBWP9Dq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-vizela/MROqZDjc/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>1.89</v>
+        <v>2.59</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.16</v>
+        <v>2.94</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>08/10/2023 16:29</t>
+          <t>08/10/2023 16:27</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.53</v>
+        <v>3.26</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.47</v>
+        <v>3.07</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>08/10/2023 16:29</t>
+          <t>08/10/2023 16:27</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>4.36</v>
+        <v>2.89</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.61</v>
+        <v>2.77</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>08/10/2023 16:28</t>
+          <t>08/10/2023 16:27</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-estrela-da-amadora/Cbb6rwo8/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-vitoria-guimaraes/beAOJg87/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
         <v>1</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Vitoria Guimaraes</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>3</v>
-      </c>
       <c r="J71" t="n">
-        <v>2.59</v>
+        <v>1.89</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.94</v>
+        <v>2.16</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>08/10/2023 16:27</t>
+          <t>08/10/2023 16:29</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.07</v>
+        <v>3.47</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>08/10/2023 16:27</t>
+          <t>08/10/2023 16:29</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.89</v>
+        <v>4.36</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.77</v>
+        <v>3.61</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>08/10/2023 16:27</t>
+          <t>08/10/2023 16:28</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-vitoria-guimaraes/beAOJg87/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-estrela-da-amadora/Cbb6rwo8/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.62</v>
+        <v>1.22</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,48 +7404,48 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.69</v>
+        <v>1.22</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>28/10/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="O76" t="inlineStr">
+      <c r="R76" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="S76" t="inlineStr">
         <is>
           <t>11/10/2023 14:42</t>
         </is>
       </c>
-      <c r="P76" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q76" t="inlineStr">
+      <c r="T76" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="U76" t="inlineStr">
         <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="R76" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>11/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T76" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:58</t>
-        </is>
-      </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 18:55</t>
+          <t>28/10/2023 18:58</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>7.32</v>
+        <v>4.26</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>6.95</v>
+        <v>4</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>13.22</v>
+        <v>5.63</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>14.17</v>
+        <v>5.29</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,26 +9045,26 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2.58</v>
+        <v>2.35</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>06/11/2023 03:12</t>
+          <t>05/11/2023 16:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.77</v>
+        <v>2.42</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>11/11/2023 18:58</t>
+          <t>11/11/2023 18:59</t>
         </is>
       </c>
       <c r="N94" t="n">
@@ -9072,36 +9072,36 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>06/11/2023 03:12</t>
+          <t>05/11/2023 16:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.51</v>
+        <v>3.28</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>11/11/2023 18:54</t>
+          <t>11/11/2023 18:31</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.83</v>
+        <v>3.23</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>06/11/2023 03:12</t>
+          <t>05/11/2023 16:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.63</v>
+        <v>3.24</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>11/11/2023 18:58</t>
+          <t>11/11/2023 18:59</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estrela-da-amadora-moreirense/SSPKqsST/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vizela-famalicao/WtjV3pDo/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,26 +9137,26 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>2.35</v>
+        <v>2.58</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>05/11/2023 16:42</t>
+          <t>06/11/2023 03:12</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.42</v>
+        <v>2.77</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>11/11/2023 18:59</t>
+          <t>11/11/2023 18:58</t>
         </is>
       </c>
       <c r="N95" t="n">
@@ -9164,36 +9164,128 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>05/11/2023 16:42</t>
+          <t>06/11/2023 03:12</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.28</v>
+        <v>3.51</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>11/11/2023 18:31</t>
+          <t>11/11/2023 18:54</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.23</v>
+        <v>2.83</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>05/11/2023 16:42</t>
+          <t>06/11/2023 03:12</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.24</v>
+        <v>2.63</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>11/11/2023 18:59</t>
+          <t>11/11/2023 18:58</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vizela-famalicao/WtjV3pDo/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estrela-da-amadora-moreirense/SSPKqsST/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45241.89583333334</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Vitoria Guimaraes</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>FC Porto</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>06/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:25</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>06/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:25</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>06/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:25</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-fc-porto/bmx8nqrB/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Vitoria Guimaraes</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
       <c r="J70" t="n">
-        <v>2.59</v>
+        <v>1.89</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.94</v>
+        <v>2.16</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>08/10/2023 16:27</t>
+          <t>08/10/2023 16:29</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.07</v>
+        <v>3.47</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>08/10/2023 16:27</t>
+          <t>08/10/2023 16:29</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.89</v>
+        <v>4.36</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.77</v>
+        <v>3.61</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>08/10/2023 16:27</t>
+          <t>08/10/2023 16:28</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-vitoria-guimaraes/beAOJg87/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-estrela-da-amadora/Cbb6rwo8/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>1.89</v>
+        <v>2.59</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.16</v>
+        <v>2.94</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>08/10/2023 16:29</t>
+          <t>08/10/2023 16:27</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.53</v>
+        <v>3.26</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.47</v>
+        <v>3.07</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>08/10/2023 16:29</t>
+          <t>08/10/2023 16:27</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>4.36</v>
+        <v>2.89</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.61</v>
+        <v>2.77</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>08/10/2023 16:28</t>
+          <t>08/10/2023 16:27</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-estrela-da-amadora/Cbb6rwo8/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-vitoria-guimaraes/beAOJg87/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 18:55</t>
+          <t>28/10/2023 18:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>7.32</v>
+        <v>4.26</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>6.95</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>13.22</v>
+        <v>5.63</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>14.17</v>
+        <v>5.29</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.62</v>
+        <v>1.22</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,48 +7496,48 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.69</v>
+        <v>1.22</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
+          <t>28/10/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="N77" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="O77" t="inlineStr">
+      <c r="R77" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="S77" t="inlineStr">
         <is>
           <t>11/10/2023 14:42</t>
         </is>
       </c>
-      <c r="P77" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q77" t="inlineStr">
+      <c r="T77" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="U77" t="inlineStr">
         <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="R77" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>11/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T77" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:58</t>
-        </is>
-      </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Vitoria Guimaraes</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Vizela</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
       <c r="J87" t="n">
-        <v>2.17</v>
+        <v>2.66</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>29/10/2023 21:42</t>
+          <t>30/10/2023 14:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.25</v>
+        <v>2.93</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>05/11/2023 16:22</t>
+          <t>05/11/2023 16:28</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.42</v>
+        <v>3.23</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>29/10/2023 21:42</t>
+          <t>30/10/2023 14:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
+          <t>05/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>30/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
           <t>05/11/2023 16:21</t>
         </is>
       </c>
-      <c r="R87" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>29/10/2023 21:42</t>
-        </is>
-      </c>
-      <c r="T87" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>05/11/2023 16:22</t>
-        </is>
-      </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-vizela/6gDUYPDB/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-vitoria-guimaraes/vq5sWNcU/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
         <v>1</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Vitoria Guimaraes</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
       <c r="J88" t="n">
-        <v>2.66</v>
+        <v>2.17</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>30/10/2023 14:42</t>
+          <t>29/10/2023 21:42</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.93</v>
+        <v>2.25</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>05/11/2023 16:28</t>
+          <t>05/11/2023 16:22</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.23</v>
+        <v>3.42</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>30/10/2023 14:42</t>
+          <t>29/10/2023 21:42</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.35</v>
+        <v>3.28</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>05/11/2023 16:02</t>
+          <t>05/11/2023 16:21</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.9</v>
+        <v>3.58</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>30/10/2023 14:42</t>
+          <t>29/10/2023 21:42</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.58</v>
+        <v>3.59</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>05/11/2023 16:21</t>
+          <t>05/11/2023 16:22</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-vitoria-guimaraes/vq5sWNcU/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-vizela/6gDUYPDB/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,26 +9045,26 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.35</v>
+        <v>2.58</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>05/11/2023 16:42</t>
+          <t>06/11/2023 03:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.42</v>
+        <v>2.77</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>11/11/2023 18:59</t>
+          <t>11/11/2023 18:58</t>
         </is>
       </c>
       <c r="N94" t="n">
@@ -9072,36 +9072,36 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>05/11/2023 16:42</t>
+          <t>06/11/2023 03:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.28</v>
+        <v>3.51</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>11/11/2023 18:31</t>
+          <t>11/11/2023 18:54</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.23</v>
+        <v>2.83</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>05/11/2023 16:42</t>
+          <t>06/11/2023 03:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.24</v>
+        <v>2.63</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>11/11/2023 18:59</t>
+          <t>11/11/2023 18:58</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vizela-famalicao/WtjV3pDo/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estrela-da-amadora-moreirense/SSPKqsST/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,26 +9137,26 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.58</v>
+        <v>2.35</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>06/11/2023 03:12</t>
+          <t>05/11/2023 16:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.77</v>
+        <v>2.42</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>11/11/2023 18:58</t>
+          <t>11/11/2023 18:59</t>
         </is>
       </c>
       <c r="N95" t="n">
@@ -9164,36 +9164,36 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>06/11/2023 03:12</t>
+          <t>05/11/2023 16:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.51</v>
+        <v>3.28</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>11/11/2023 18:54</t>
+          <t>11/11/2023 18:31</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.83</v>
+        <v>3.23</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>06/11/2023 03:12</t>
+          <t>05/11/2023 16:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.63</v>
+        <v>3.24</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>11/11/2023 18:58</t>
+          <t>11/11/2023 18:59</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estrela-da-amadora-moreirense/SSPKqsST/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vizela-famalicao/WtjV3pDo/</t>
         </is>
       </c>
     </row>
@@ -9286,6 +9286,282 @@
       <c r="V96" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-fc-porto/bmx8nqrB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45242.6875</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>SC Farense</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:14</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:14</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:14</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/boavista-sc-farense/tCRCo3cH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45242.6875</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:22</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:26</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:22</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-rio-ave/K2QGpNCN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45242.79166666666</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-braga/ppY3mPS4/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V99"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.62</v>
+        <v>1.22</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,48 +7404,48 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.69</v>
+        <v>1.22</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>28/10/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="O76" t="inlineStr">
+      <c r="R76" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="S76" t="inlineStr">
         <is>
           <t>11/10/2023 14:42</t>
         </is>
       </c>
-      <c r="P76" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q76" t="inlineStr">
+      <c r="T76" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="U76" t="inlineStr">
         <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="R76" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>11/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T76" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:58</t>
-        </is>
-      </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 18:55</t>
+          <t>28/10/2023 18:58</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>7.32</v>
+        <v>4.26</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>6.95</v>
+        <v>4</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>13.22</v>
+        <v>5.63</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>14.17</v>
+        <v>5.29</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>1</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Vitoria Guimaraes</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
       <c r="J87" t="n">
-        <v>2.66</v>
+        <v>2.17</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>30/10/2023 14:42</t>
+          <t>29/10/2023 21:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.93</v>
+        <v>2.25</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>05/11/2023 16:28</t>
+          <t>05/11/2023 16:22</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.23</v>
+        <v>3.42</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>30/10/2023 14:42</t>
+          <t>29/10/2023 21:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.35</v>
+        <v>3.28</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>05/11/2023 16:02</t>
+          <t>05/11/2023 16:21</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.9</v>
+        <v>3.58</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>30/10/2023 14:42</t>
+          <t>29/10/2023 21:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.58</v>
+        <v>3.59</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>05/11/2023 16:21</t>
+          <t>05/11/2023 16:22</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-vitoria-guimaraes/vq5sWNcU/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-vizela/6gDUYPDB/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Vitoria Guimaraes</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Vizela</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
       <c r="J88" t="n">
-        <v>2.17</v>
+        <v>2.66</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>29/10/2023 21:42</t>
+          <t>30/10/2023 14:42</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.25</v>
+        <v>2.93</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>05/11/2023 16:22</t>
+          <t>05/11/2023 16:28</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.42</v>
+        <v>3.23</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>29/10/2023 21:42</t>
+          <t>30/10/2023 14:42</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
+          <t>05/11/2023 16:02</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>30/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
           <t>05/11/2023 16:21</t>
         </is>
       </c>
-      <c r="R88" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>29/10/2023 21:42</t>
-        </is>
-      </c>
-      <c r="T88" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>05/11/2023 16:22</t>
-        </is>
-      </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-vizela/6gDUYPDB/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-vitoria-guimaraes/vq5sWNcU/</t>
         </is>
       </c>
     </row>
@@ -9562,6 +9562,98 @@
       <c r="V99" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-braga/ppY3mPS4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45242.89583333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>12/11/2023 21:29</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>12/11/2023 21:28</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>12/11/2023 21:29</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-sporting-lisbon/jNYal5Db/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6461,71 +6461,71 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>2.29</v>
+        <v>2.62</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.32</v>
+        <v>2.74</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>07/10/2023 16:02</t>
+          <t>07/10/2023 16:29</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.47</v>
+        <v>3.65</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>07/10/2023 15:49</t>
+          <t>07/10/2023 16:25</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.31</v>
+        <v>2.73</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>02/10/2023 07:12</t>
+          <t>02/10/2023 20:42</t>
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.24</v>
+        <v>2.58</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>07/10/2023 16:03</t>
+          <t>07/10/2023 16:29</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sc-farense-vizela/OY1Asc0E/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-gil-vicente/K4BKKZh1/</t>
         </is>
       </c>
     </row>
@@ -6553,71 +6553,71 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2.62</v>
+        <v>2.29</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.74</v>
+        <v>2.32</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>07/10/2023 16:29</t>
+          <t>07/10/2023 16:02</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.65</v>
+        <v>3.47</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>07/10/2023 16:25</t>
+          <t>07/10/2023 15:49</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.73</v>
+        <v>3.31</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>02/10/2023 20:42</t>
+          <t>02/10/2023 07:12</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.58</v>
+        <v>3.24</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>07/10/2023 16:29</t>
+          <t>07/10/2023 16:03</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-gil-vicente/K4BKKZh1/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sc-farense-vizela/OY1Asc0E/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 18:55</t>
+          <t>28/10/2023 18:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>7.32</v>
+        <v>4.26</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>6.95</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>13.22</v>
+        <v>5.63</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>14.17</v>
+        <v>5.29</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.62</v>
+        <v>1.22</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,48 +7496,48 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.69</v>
+        <v>1.22</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
+          <t>28/10/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="N77" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="O77" t="inlineStr">
+      <c r="R77" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="S77" t="inlineStr">
         <is>
           <t>11/10/2023 14:42</t>
         </is>
       </c>
-      <c r="P77" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q77" t="inlineStr">
+      <c r="T77" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="U77" t="inlineStr">
         <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="R77" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>11/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T77" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:58</t>
-        </is>
-      </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
         </is>
       </c>
     </row>
@@ -9654,6 +9654,98 @@
       <c r="V100" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-sporting-lisbon/jNYal5Db/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45261.89583333334</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Chaves</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>01/12/2023 21:27</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>01/12/2023 21:27</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:24</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-vizela/Ichs1rc4/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9749,6 +9749,282 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45262.6875</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:20</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:20</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:20</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/rio-ave-estrela-da-amadora/vLYBGNdi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45262.6875</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>SC Farense</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Vitoria Guimaraes</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:21</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sc-farense-vitoria-guimaraes/8nofbtsN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45262.79166666666</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>FC Porto</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-fc-porto/zZnn02CA/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.93</v>
+        <v>2.05</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 16:27</t>
+          <t>17/09/2023 16:29</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.23</v>
+        <v>3.53</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.66</v>
+        <v>3.54</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.66</v>
+        <v>3.87</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-casa-pia/YkfRciUj/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-estoril/zyjRGWzT/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,48 +4368,48 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.05</v>
+        <v>2.93</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>17/09/2023 16:27</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>04/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
           <t>17/09/2023 16:29</t>
         </is>
       </c>
-      <c r="N43" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O43" t="inlineStr">
+      <c r="R43" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S43" t="inlineStr">
         <is>
           <t>04/09/2023 18:12</t>
         </is>
       </c>
-      <c r="P43" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q43" t="inlineStr">
+      <c r="T43" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U43" t="inlineStr">
         <is>
           <t>17/09/2023 16:29</t>
         </is>
       </c>
-      <c r="R43" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>04/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T43" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:29</t>
-        </is>
-      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-estoril/zyjRGWzT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-casa-pia/YkfRciUj/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>19/09/2023 06:12</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.13</v>
+        <v>2.62</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>23/09/2023 16:26</t>
+          <t>23/09/2023 16:25</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.55</v>
+        <v>3.41</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>19/09/2023 06:12</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.55</v>
+        <v>3.49</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 16:27</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.44</v>
+        <v>3.31</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>19/09/2023 06:12</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.59</v>
+        <v>2.79</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>23/09/2023 16:26</t>
+          <t>23/09/2023 16:27</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-sc-farense/fZBWP9Dq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-vizela/MROqZDjc/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 06:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.62</v>
+        <v>2.13</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>23/09/2023 16:25</t>
+          <t>23/09/2023 16:26</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.41</v>
+        <v>3.55</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 06:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.49</v>
+        <v>3.55</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>23/09/2023 16:27</t>
+          <t>23/09/2023 15:52</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.31</v>
+        <v>3.44</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 06:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.79</v>
+        <v>3.59</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>23/09/2023 16:27</t>
+          <t>23/09/2023 16:26</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-vizela/MROqZDjc/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-sc-farense/fZBWP9Dq/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.62</v>
+        <v>1.22</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,48 +7404,48 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.69</v>
+        <v>1.22</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>28/10/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="O76" t="inlineStr">
+      <c r="R76" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="S76" t="inlineStr">
         <is>
           <t>11/10/2023 14:42</t>
         </is>
       </c>
-      <c r="P76" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q76" t="inlineStr">
+      <c r="T76" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="U76" t="inlineStr">
         <is>
           <t>28/10/2023 18:58</t>
         </is>
       </c>
-      <c r="R76" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>11/10/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T76" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:58</t>
-        </is>
-      </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.22</v>
+        <v>1.62</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 18:55</t>
+          <t>28/10/2023 18:58</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>7.32</v>
+        <v>4.26</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>6.95</v>
+        <v>4</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>13.22</v>
+        <v>5.63</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>14.17</v>
+        <v>5.29</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-casa-pia/GWtkzFhl/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-chaves/8vH9wlat/</t>
         </is>
       </c>
     </row>
@@ -10022,6 +10022,2122 @@
       <c r="V104" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-fc-porto/zZnn02CA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45262.89583333334</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:21</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:23</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:23</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-portimonense/EPojaMRG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45263.6875</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>3</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/braga-estoril/v7gw2Osb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45263.79166666666</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-benfica/6X3cc0dT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45263.89583333334</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>4</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:28</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>03/12/2023 20:37</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:28</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/boavista-arouca/CEtQhK4p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45264.88541666666</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>3</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>04/12/2023 20:47</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>04/12/2023 21:00</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>15/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>04/12/2023 21:00</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sporting-lisbon-gil-vicente/j5uUivKj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45268.6875</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>3</v>
+      </c>
+      <c r="J110" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>08/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>08/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>08/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vizela-braga/niPWBaBM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45268.79166666666</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>SC Farense</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:34</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-sc-farense/IBXFFsCc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45269.6875</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:22</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:21</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:22</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-famalicao/UBSe6wZq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45269.79166666666</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Vitoria Guimaraes</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>3</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>2</v>
+      </c>
+      <c r="J113" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>04/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>04/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>04/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-sporting-lisbon/EwRODLtA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45269.89583333334</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>FC Porto</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>3</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:29</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:29</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:29</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/fc-porto-casa-pia/xxW34H3d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45270.6875</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>3</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estrela-da-amadora-boavista/OYRa5clj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45270.79166666666</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>2</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:57</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:57</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-rio-ave/0zNKE1R3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45270.89583333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>4</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Chaves</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:25</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:10</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:25</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-chaves/S2tUAJQS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45271.88541666666</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>04/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>11/12/2023 21:14</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>04/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>11/12/2023 21:14</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>04/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>11/12/2023 21:14</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-moreirense/80QSCudG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45275.88541666666</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>SC Farense</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>15/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>15/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>15/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sc-farense-estrela-da-amadora/8KMq5lf7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45276.6875</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:26</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:25</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:26</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/rio-ave-vizela/QcCbQbQF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45276.79166666666</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>3</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>11/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>11/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>11/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-gil-vicente/vsAnT0tc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45276.89583333334</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Vitoria Guimaraes</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:29</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:29</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:23</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/boavista-vitoria-guimaraes/n7DfRvB9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45277.6875</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Chaves</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>3</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:23</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:04</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:23</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-casa-pia/IX8jSKe3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45277.6875</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>5</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>11/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>11/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>11/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-portimonense/6eQS8Wfr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45277.79166666666</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-estoril/jqSv6Uv1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45277.89583333334</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>17/12/2023 21:24</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>17/12/2023 21:29</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>17/12/2023 21:24</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/braga-benfica/IVTW7jAl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45278.88541666666</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>FC Porto</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>11/12/2023 21:46</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>18/12/2023 21:14</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>11/12/2023 21:46</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>18/12/2023 21:14</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>11/12/2023 21:46</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>18/12/2023 21:13</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sporting-lisbon-fc-porto/ChTz7APf/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.12</v>
+        <v>2.45</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.15</v>
+        <v>3.35</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>19/08/2023 20:57</t>
+          <t>19/08/2023 21:28</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>10.69</v>
+        <v>3.31</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>8.859999999999999</v>
+        <v>3.24</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>19/08/2023 21:25</t>
+          <t>19/08/2023 21:22</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>22.27</v>
+        <v>3.16</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>19.04</v>
+        <v>2.38</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>19/08/2023 21:25</t>
+          <t>19/08/2023 21:28</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-estrela-da-amadora/zFdna79Q/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-boavista/C0wwkNoJ/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.45</v>
+        <v>1.12</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.35</v>
+        <v>1.15</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 21:28</t>
+          <t>19/08/2023 20:57</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.31</v>
+        <v>10.69</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.24</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 21:22</t>
+          <t>19/08/2023 21:25</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.16</v>
+        <v>22.27</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.38</v>
+        <v>19.04</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 21:28</t>
+          <t>19/08/2023 21:25</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-boavista/C0wwkNoJ/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-estrela-da-amadora/zFdna79Q/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.64</v>
+        <v>2.57</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>02/09/2023 18:58</t>
+          <t>02/09/2023 18:57</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,32 +3188,32 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.24</v>
+        <v>3.31</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
+          <t>02/09/2023 18:55</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>28/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
           <t>02/09/2023 18:57</t>
         </is>
       </c>
-      <c r="R30" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>28/08/2023 03:42</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>02/09/2023 18:58</t>
-        </is>
-      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-sc-farense/0vywKsog/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-estrela-da-amadora/faeNbXEp/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.57</v>
+        <v>1.64</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,48 +3264,48 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>02/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>28/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
           <t>02/09/2023 18:57</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O31" t="inlineStr">
+      <c r="R31" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="S31" t="inlineStr">
         <is>
           <t>28/08/2023 03:42</t>
         </is>
       </c>
-      <c r="P31" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>02/09/2023 18:55</t>
-        </is>
-      </c>
-      <c r="R31" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>28/08/2023 03:42</t>
-        </is>
-      </c>
       <c r="T31" t="n">
-        <v>2.92</v>
+        <v>3.04</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:57</t>
+          <t>02/09/2023 18:58</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-estrela-da-amadora/faeNbXEp/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-sc-farense/0vywKsog/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -3444,11 +3444,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>27/08/2023 15:42</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3.06</v>
+        <v>2.65</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3456,40 +3456,40 @@
         </is>
       </c>
       <c r="N33" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>27/08/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
         <v>3.28</v>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>28/08/2023 04:12</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>3.53</v>
-      </c>
       <c r="Q33" t="inlineStr">
         <is>
+          <t>03/09/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>27/08/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
           <t>03/09/2023 16:22</t>
         </is>
       </c>
-      <c r="R33" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>28/08/2023 04:12</t>
-        </is>
-      </c>
-      <c r="T33" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>03/09/2023 16:22</t>
-        </is>
-      </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-moreirense/MmxZKNVn/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-boavista/l0TkHuVB/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -3536,11 +3536,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>27/08/2023 15:42</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.65</v>
+        <v>3.06</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,31 +3548,31 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>27/08/2023 15:42</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.28</v>
+        <v>3.53</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>03/09/2023 16:28</t>
+          <t>03/09/2023 16:22</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.38</v>
+        <v>3.39</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>27/08/2023 15:42</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.89</v>
+        <v>2.39</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-boavista/l0TkHuVB/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/chaves-moreirense/MmxZKNVn/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 06:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.62</v>
+        <v>2.13</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>23/09/2023 16:25</t>
+          <t>23/09/2023 16:26</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.41</v>
+        <v>3.55</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 06:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.49</v>
+        <v>3.55</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>23/09/2023 16:27</t>
+          <t>23/09/2023 15:52</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.31</v>
+        <v>3.44</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>17/09/2023 15:42</t>
+          <t>19/09/2023 06:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.79</v>
+        <v>3.59</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>23/09/2023 16:27</t>
+          <t>23/09/2023 16:26</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-vizela/MROqZDjc/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-sc-farense/fZBWP9Dq/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>19/09/2023 06:12</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.13</v>
+        <v>2.62</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>23/09/2023 16:26</t>
+          <t>23/09/2023 16:25</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.55</v>
+        <v>3.41</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>19/09/2023 06:12</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.55</v>
+        <v>3.49</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 16:27</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.44</v>
+        <v>3.31</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>19/09/2023 06:12</t>
+          <t>17/09/2023 15:42</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.59</v>
+        <v>2.79</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>23/09/2023 16:26</t>
+          <t>23/09/2023 16:27</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/moreirense-sc-farense/fZBWP9Dq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-vizela/MROqZDjc/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,26 +9045,26 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2.58</v>
+        <v>2.35</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>06/11/2023 03:12</t>
+          <t>05/11/2023 16:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.77</v>
+        <v>2.42</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>11/11/2023 18:58</t>
+          <t>11/11/2023 18:59</t>
         </is>
       </c>
       <c r="N94" t="n">
@@ -9072,36 +9072,36 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>06/11/2023 03:12</t>
+          <t>05/11/2023 16:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.51</v>
+        <v>3.28</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>11/11/2023 18:54</t>
+          <t>11/11/2023 18:31</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.83</v>
+        <v>3.23</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>06/11/2023 03:12</t>
+          <t>05/11/2023 16:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.63</v>
+        <v>3.24</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>11/11/2023 18:58</t>
+          <t>11/11/2023 18:59</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estrela-da-amadora-moreirense/SSPKqsST/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vizela-famalicao/WtjV3pDo/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,26 +9137,26 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>2.35</v>
+        <v>2.58</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>05/11/2023 16:42</t>
+          <t>06/11/2023 03:12</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.42</v>
+        <v>2.77</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>11/11/2023 18:59</t>
+          <t>11/11/2023 18:58</t>
         </is>
       </c>
       <c r="N95" t="n">
@@ -9164,36 +9164,36 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>05/11/2023 16:42</t>
+          <t>06/11/2023 03:12</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.28</v>
+        <v>3.51</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>11/11/2023 18:31</t>
+          <t>11/11/2023 18:54</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.23</v>
+        <v>2.83</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>05/11/2023 16:42</t>
+          <t>06/11/2023 03:12</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.24</v>
+        <v>2.63</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>11/11/2023 18:59</t>
+          <t>11/11/2023 18:58</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vizela-famalicao/WtjV3pDo/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estrela-da-amadora-moreirense/SSPKqsST/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>2.26</v>
+        <v>2.77</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.06</v>
+        <v>3.38</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>02/12/2023 16:20</t>
+          <t>02/12/2023 16:28</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.36</v>
+        <v>3.25</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.43</v>
+        <v>3.65</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>02/12/2023 16:20</t>
+          <t>02/12/2023 16:28</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.18</v>
+        <v>2.59</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.72</v>
+        <v>2.1</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>02/12/2023 16:20</t>
+          <t>02/12/2023 16:21</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/rio-ave-estrela-da-amadora/vLYBGNdi/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sc-farense-vitoria-guimaraes/8nofbtsN/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>2.77</v>
+        <v>2.26</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.38</v>
+        <v>2.06</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>02/12/2023 16:28</t>
+          <t>02/12/2023 16:20</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.65</v>
+        <v>3.43</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>02/12/2023 16:28</t>
+          <t>02/12/2023 16:20</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.59</v>
+        <v>3.18</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.1</v>
+        <v>3.72</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>02/12/2023 16:21</t>
+          <t>02/12/2023 16:20</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sc-farense-vitoria-guimaraes/8nofbtsN/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/rio-ave-estrela-da-amadora/vLYBGNdi/</t>
         </is>
       </c>
     </row>
@@ -12138,6 +12138,834 @@
       <c r="V127" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal/sporting-lisbon-fc-porto/ChTz7APf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45283.6875</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Vitoria Guimaraes</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:27</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:27</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:27</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-rio-ave/0E9VSinE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45283.6875</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vizela-moreirense/SrdMI7O6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45288.88541666666</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>4</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>21/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>28/12/2023 21:14</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>21/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>28/12/2023 21:13</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>21/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>28/12/2023 21:14</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estrela-da-amadora-arouca/hQ39L9vl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45289.82291666666</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>3</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>29/12/2023 19:19</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>29/12/2023 19:21</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>29/12/2023 19:21</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/benfica-famalicao/nBLm489D/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45289.90625</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>FC Porto</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Chaves</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>22/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>29/12/2023 21:37</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>22/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>29/12/2023 21:43</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>22/12/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>29/12/2023 21:43</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/fc-porto-chaves/WG2DKTgf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45290.6875</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>4</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>SC Farense</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:14</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>30/12/2023 16:14</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:14</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>30/12/2023 16:17</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:14</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>30/12/2023 16:15</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-sc-farense/EHDZRB1K/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45290.6875</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:14</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>30/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:14</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>30/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:14</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>30/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-boavista/EuhIJm90/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45290.79166666666</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>3</v>
+      </c>
+      <c r="J135" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>23/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>30/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>23/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>30/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>23/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>30/12/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/casa-pia-braga/bkk6MkPs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45290.89583333334</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>2</v>
+      </c>
+      <c r="J136" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>23/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>30/12/2023 21:28</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>23/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>30/12/2023 21:28</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>23/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>30/12/2023 21:28</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-sporting-lisbon/dt3vRVGQ/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V136"/>
+  <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12969,6 +12969,98 @@
         </is>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45296.82291666666</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>5</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>30/12/2024 21:42</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>05/01/2024 19:18</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>30/12/2024 21:42</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>05/01/2024 19:43</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>30/12/2024 21:42</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>05/01/2024 19:43</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sporting-lisbon-estoril/6ZGeX6w0/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/portugal_liga-portugal_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V137"/>
+  <dimension ref="A1:V142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.57</v>
+        <v>1.64</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,48 +3172,48 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>02/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>28/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
           <t>02/09/2023 18:57</t>
         </is>
       </c>
-      <c r="N30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O30" t="inlineStr">
+      <c r="R30" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="S30" t="inlineStr">
         <is>
           <t>28/08/2023 03:42</t>
         </is>
       </c>
-      <c r="P30" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>02/09/2023 18:55</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>28/08/2023 03:42</t>
-        </is>
-      </c>
       <c r="T30" t="n">
-        <v>2.92</v>
+        <v>3.04</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>02/09/2023 18:57</t>
+          <t>02/09/2023 18:58</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-estrela-da-amadora/faeNbXEp/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-sc-farense/0vywKsog/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.64</v>
+        <v>2.57</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:58</t>
+          <t>02/09/2023 18:57</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,32 +3280,32 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.24</v>
+        <v>3.31</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
+          <t>02/09/2023 18:55</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>28/08/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
           <t>02/09/2023 18:57</t>
         </is>
       </c>
-      <c r="R31" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>28/08/2023 03:42</t>
-        </is>
-      </c>
-      <c r="T31" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>02/09/2023 18:58</t>
-        </is>
-      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/famalicao-sc-farense/0vywKsog/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/portimonense-estrela-da-amadora/faeNbXEp/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.05</v>
+        <v>2.93</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>17/09/2023 16:27</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>04/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
           <t>17/09/2023 16:29</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="R42" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>04/09/2023 18:12</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q42" t="inlineStr">
+      <c r="T42" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U42" t="inlineStr">
         <is>
           <t>17/09/2023 16:29</t>
         </is>
       </c>
-      <c r="R42" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>04/09/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>17/09/2023 16:29</t>
-        </is>
-      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-estoril/zyjRGWzT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-casa-pia/YkfRciUj/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.93</v>
+        <v>2.05</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 16:27</t>
+          <t>17/09/2023 16:29</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.23</v>
+        <v>3.53</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.66</v>
+        <v>3.54</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.66</v>
+        <v>3.87</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-casa-pia/YkfRciUj/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-estoril/zyjRGWzT/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,26 +9045,26 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.35</v>
+        <v>2.58</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>05/11/2023 16:42</t>
+          <t>06/11/2023 03:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.42</v>
+        <v>2.77</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>11/11/2023 18:59</t>
+          <t>11/11/2023 18:58</t>
         </is>
       </c>
       <c r="N94" t="n">
@@ -9072,36 +9072,36 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>05/11/2023 16:42</t>
+          <t>06/11/2023 03:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.28</v>
+        <v>3.51</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>11/11/2023 18:31</t>
+          <t>11/11/2023 18:54</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.23</v>
+        <v>2.83</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>05/11/2023 16:42</t>
+          <t>06/11/2023 03:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.24</v>
+        <v>2.63</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>11/11/2023 18:59</t>
+          <t>11/11/2023 18:58</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vizela-famalicao/WtjV3pDo/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estrela-da-amadora-moreirense/SSPKqsST/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,26 +9137,26 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.58</v>
+        <v>2.35</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>06/11/2023 03:12</t>
+          <t>05/11/2023 16:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.77</v>
+        <v>2.42</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>11/11/2023 18:58</t>
+          <t>11/11/2023 18:59</t>
         </is>
       </c>
       <c r="N95" t="n">
@@ -9164,36 +9164,36 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>06/11/2023 03:12</t>
+          <t>05/11/2023 16:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.51</v>
+        <v>3.28</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>11/11/2023 18:54</t>
+          <t>11/11/2023 18:31</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.83</v>
+        <v>3.23</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>06/11/2023 03:12</t>
+          <t>05/11/2023 16:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.63</v>
+        <v>3.24</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>11/11/2023 18:58</t>
+          <t>11/11/2023 18:59</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estrela-da-amadora-moreirense/SSPKqsST/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vizela-famalicao/WtjV3pDo/</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -9321,63 +9321,63 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>06/11/2023 21:42</t>
+          <t>05/11/2023 19:12</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.97</v>
+        <v>2.3</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>12/11/2023 16:14</t>
+          <t>12/11/2023 16:22</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.6</v>
+        <v>3.56</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>06/11/2023 21:42</t>
+          <t>05/11/2023 19:12</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.73</v>
+        <v>3.45</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>12/11/2023 16:14</t>
+          <t>12/11/2023 16:26</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.43</v>
+        <v>3.61</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>06/11/2023 21:42</t>
+          <t>05/11/2023 19:12</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.93</v>
+        <v>3.29</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>12/11/2023 16:14</t>
+          <t>12/11/2023 16:22</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/boavista-sc-farense/tCRCo3cH/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-rio-ave/K2QGpNCN/</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -9413,63 +9413,63 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J98" t="n">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>05/11/2023 19:12</t>
+          <t>06/11/2023 21:42</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.3</v>
+        <v>1.97</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>12/11/2023 16:22</t>
+          <t>12/11/2023 16:14</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.56</v>
+        <v>3.6</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>05/11/2023 19:12</t>
+          <t>06/11/2023 21:42</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.45</v>
+        <v>3.73</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>12/11/2023 16:26</t>
+          <t>12/11/2023 16:14</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.61</v>
+        <v>3.43</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>05/11/2023 19:12</t>
+          <t>06/11/2023 21:42</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.29</v>
+        <v>3.93</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>12/11/2023 16:22</t>
+          <t>12/11/2023 16:14</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-rio-ave/K2QGpNCN/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/boavista-sc-farense/tCRCo3cH/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.77</v>
+        <v>2.26</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.38</v>
+        <v>2.06</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>02/12/2023 16:28</t>
+          <t>02/12/2023 16:20</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.65</v>
+        <v>3.43</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>02/12/2023 16:28</t>
+          <t>02/12/2023 16:20</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.59</v>
+        <v>3.18</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.1</v>
+        <v>3.72</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>02/12/2023 16:21</t>
+          <t>02/12/2023 16:20</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sc-farense-vitoria-guimaraes/8nofbtsN/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/rio-ave-estrela-da-amadora/vLYBGNdi/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>2.26</v>
+        <v>2.77</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.06</v>
+        <v>3.38</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>02/12/2023 16:20</t>
+          <t>02/12/2023 16:28</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.36</v>
+        <v>3.25</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.43</v>
+        <v>3.65</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>02/12/2023 16:20</t>
+          <t>02/12/2023 16:28</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.18</v>
+        <v>2.59</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.72</v>
+        <v>2.1</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>02/12/2023 16:20</t>
+          <t>02/12/2023 16:21</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/rio-ave-estrela-da-amadora/vLYBGNdi/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sc-farense-vitoria-guimaraes/8nofbtsN/</t>
         </is>
       </c>
     </row>
@@ -12165,71 +12165,71 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.71</v>
+        <v>2.82</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>16/12/2023 21:42</t>
+          <t>17/12/2023 16:42</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.77</v>
+        <v>3.15</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>23/12/2023 16:27</t>
+          <t>23/12/2023 16:29</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.8</v>
+        <v>3.29</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>16/12/2023 21:42</t>
+          <t>17/12/2023 16:42</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.73</v>
+        <v>3.09</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>23/12/2023 16:27</t>
+          <t>23/12/2023 16:28</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>5.1</v>
+        <v>2.63</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>16/12/2023 21:42</t>
+          <t>17/12/2023 16:42</t>
         </is>
       </c>
       <c r="T128" t="n">
-        <v>5.1</v>
+        <v>2.59</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>23/12/2023 16:27</t>
+          <t>23/12/2023 16:29</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-rio-ave/0E9VSinE/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vizela-moreirense/SrdMI7O6/</t>
         </is>
       </c>
     </row>
@@ -12257,71 +12257,71 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2.82</v>
+        <v>1.71</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>17/12/2023 16:42</t>
+          <t>16/12/2023 21:42</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>3.15</v>
+        <v>1.77</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>23/12/2023 16:29</t>
+          <t>23/12/2023 16:27</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.29</v>
+        <v>3.8</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>17/12/2023 16:42</t>
+          <t>16/12/2023 21:42</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.09</v>
+        <v>3.73</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>23/12/2023 16:28</t>
+          <t>23/12/2023 16:27</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>2.63</v>
+        <v>5.1</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
-          <t>17/12/2023 16:42</t>
+          <t>16/12/2023 21:42</t>
         </is>
       </c>
       <c r="T129" t="n">
-        <v>2.59</v>
+        <v>5.1</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>23/12/2023 16:29</t>
+          <t>23/12/2023 16:27</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vizela-moreirense/SrdMI7O6/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/vitoria-guimaraes-rio-ave/0E9VSinE/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>2.08</v>
+        <v>2.29</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.91</v>
+        <v>2.41</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>30/12/2023 16:14</t>
+          <t>30/12/2023 16:28</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.58</v>
+        <v>3.51</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.84</v>
+        <v>3.32</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>30/12/2023 16:17</t>
+          <t>30/12/2023 16:28</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>3.58</v>
+        <v>3.13</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>4.07</v>
+        <v>3.21</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>30/12/2023 16:15</t>
+          <t>30/12/2023 16:28</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-sc-farense/EHDZRB1K/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-boavista/EuhIJm90/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>2.29</v>
+        <v>2.08</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.41</v>
+        <v>1.91</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>30/12/2023 16:28</t>
+          <t>30/12/2023 16:14</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.51</v>
+        <v>3.58</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.32</v>
+        <v>3.84</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>30/12/2023 16:28</t>
+          <t>30/12/2023 16:17</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>3.13</v>
+        <v>3.58</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.21</v>
+        <v>4.07</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>30/12/2023 16:28</t>
+          <t>30/12/2023 16:15</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal/gil-vicente-boavista/EuhIJm90/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estoril-sc-farense/EHDZRB1K/</t>
         </is>
       </c>
     </row>
@@ -13058,6 +13058,466 @@
       <c r="V137" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal/sporting-lisbon-estoril/6ZGeX6w0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45296.90625</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>FC Porto</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>30/12/2024 18:13</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>05/01/2024 21:44</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>30/12/2024 18:13</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>05/01/2024 21:44</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>30/12/2024 18:13</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>05/01/2024 21:42</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/boavista-fc-porto/xEwDuVVJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45297.6875</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>SC Farense</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>30/12/2024 18:13</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:12</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>30/12/2024 18:13</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:12</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>30/12/2024 18:13</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:10</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/sc-farense-gil-vicente/YqPrz9gs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45297.6875</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>30/12/2024 18:13</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:29</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>30/12/2024 18:13</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:29</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>30/12/2024 18:13</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:29</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/estrela-da-amadora-vizela/G4xHvkoQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45297.79166666666</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>3</v>
+      </c>
+      <c r="J141" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>30/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>06/01/2024 18:59</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>30/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>06/01/2024 18:59</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>30/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>06/01/2024 18:57</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/arouca-benfica/0dfUGogJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>liga-portugal</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45297.89583333334</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Vitoria Guimaraes</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>30/12/2024 21:42</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>06/01/2024 21:23</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>30/12/2024 21:42</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>06/01/2024 21:25</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>30/12/2024 21:42</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>06/01/2024 21:25</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal/braga-vitoria-guimaraes/M5eQHRwD/</t>
         </is>
       </c>
     </row>
